--- a/app/templates/BlockTemplate_ChainID_11155111.xlsx
+++ b/app/templates/BlockTemplate_ChainID_11155111.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\project\EPUERP\code\BlockAtmGuard-github\test_desktop_agent\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED717499-C144-4A47-BFBF-C3635E147C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0DD33E-D6F6-4174-B0A1-A5458D4F20F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -555,7 +555,7 @@
   <dimension ref="A1:H723"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2811,13 +2811,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E1048576" xr:uid="{F14616C9-F808-46E0-990E-FFE009E87DA9}">
-      <formula1>"Optimism Sepolia Testnet"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{F4EBC6FF-AE96-4B72-B4D0-56E47064B324}">
       <formula1>"DAI,USDT,USDC,TUSD,FRAX"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2" xr:uid="{25FF7BBB-5C37-4F17-8CF5-ECF27C83DDDC}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E1048576" xr:uid="{0F4E4729-9FE2-44D2-904A-FBB1B579A48F}">
+      <formula1>"Ethereum Sepolia Testnet"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
